--- a/resources/input.xlsx
+++ b/resources/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Devfile\hydro-sty\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852BCC84-ADB8-43BE-B0C9-01D9F01BCAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F3F8F5-3AEF-47B5-94EA-C6BFE5560D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>t(h)</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -54,10 +54,6 @@
   </si>
   <si>
     <t>总泄量Q(m³/s)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>q(m³)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -77,7 +73,7 @@
     <numFmt numFmtId="176" formatCode="0.000"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,14 +106,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="8"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -167,7 +155,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -192,18 +180,13 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -488,7 +471,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A2" sqref="A2:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -498,103 +481,103 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="8">
+      <c r="A2" s="10">
         <v>0</v>
       </c>
-      <c r="B2" s="8">
-        <v>2.7098864511023062</v>
+      <c r="B2" s="10">
+        <v>2.2346181815168151</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="8">
-        <v>0.81600000000000006</v>
-      </c>
-      <c r="B3" s="8">
-        <v>2.26920260606455</v>
+      <c r="A3" s="10">
+        <v>1.2597</v>
+      </c>
+      <c r="B3" s="10">
+        <v>20.11814667528127</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="8">
-        <v>1.1729999999999998</v>
-      </c>
-      <c r="B4" s="8">
-        <v>5.7492538451768329</v>
+      <c r="A4" s="10">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="B4" s="10">
+        <v>124.35514893813563</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="8">
-        <v>1.5249000000000001</v>
-      </c>
-      <c r="B5" s="8">
-        <v>18.612453256264835</v>
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10">
+        <v>69.568150573465417</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="8">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B6" s="8">
-        <v>33.949543727489775</v>
+      <c r="A6" s="10">
+        <v>4.4707000000000008</v>
+      </c>
+      <c r="B6" s="10">
+        <v>33.235770051491855</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="8">
-        <v>2.99</v>
-      </c>
-      <c r="B7" s="8">
-        <v>114.29370350553167</v>
+      <c r="A7" s="10">
+        <v>4.9594000000000005</v>
+      </c>
+      <c r="B7" s="10">
+        <v>17.959707217792989</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="8">
-        <v>5.4119000000000002</v>
-      </c>
-      <c r="B8" s="8">
-        <v>28.23338153722829</v>
+      <c r="A8" s="10">
+        <v>11.227272727272728</v>
+      </c>
+      <c r="B8" s="10">
+        <v>11.229763622147374</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="8">
-        <v>15</v>
-      </c>
-      <c r="B9" s="8">
-        <v>10.341438576910043</v>
+      <c r="A9" s="10">
+        <v>18</v>
+      </c>
+      <c r="B9" s="10">
+        <v>9.083113081287987</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="8">
-        <v>18</v>
-      </c>
-      <c r="B10" s="8">
-        <v>8.8228580491339059</v>
+      <c r="A10" s="10">
+        <v>21</v>
+      </c>
+      <c r="B10" s="10">
+        <v>7.103027045336578</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="8">
-        <v>21</v>
-      </c>
-      <c r="B11" s="8">
-        <v>7.3042775213577684</v>
+      <c r="A11" s="10">
+        <v>24</v>
+      </c>
+      <c r="B11" s="10">
+        <v>5.1229410093851708</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="8">
-        <v>24</v>
-      </c>
-      <c r="B12" s="8">
-        <v>5.7856969935816309</v>
+      <c r="A12" s="10">
+        <v>27.39</v>
+      </c>
+      <c r="B12" s="10">
+        <v>1.2592259527185738</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="8">
-        <v>33.161818181818184</v>
-      </c>
-      <c r="B13" s="8">
-        <v>1.3115601396809831</v>
+      <c r="A13" s="10">
+        <v>30.39</v>
+      </c>
+      <c r="B13" s="10">
+        <v>0.97539222879824106</v>
       </c>
     </row>
   </sheetData>
@@ -610,7 +593,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A2" sqref="A2:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -627,7 +610,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>519</v>
       </c>
       <c r="B2" s="2">
@@ -635,7 +618,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>519.5</v>
       </c>
       <c r="B3" s="2">
@@ -643,7 +626,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>520</v>
       </c>
       <c r="B4" s="2">
@@ -651,131 +634,131 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>520.5</v>
       </c>
       <c r="B5" s="2">
-        <v>0</v>
+        <v>5.5060500000000005E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>521</v>
       </c>
       <c r="B6" s="2">
-        <v>0</v>
+        <v>0.18088900000000002</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>521.5</v>
       </c>
       <c r="B7" s="2">
-        <v>0</v>
+        <v>0.8944166105694803</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>522</v>
       </c>
       <c r="B8" s="2">
-        <v>7.3194666666666672E-2</v>
+        <v>1.8650711733034688</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>522.5</v>
       </c>
       <c r="B9" s="2">
-        <v>0.48552513235015549</v>
+        <v>3.289521230569409</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>523</v>
       </c>
       <c r="B10" s="2">
-        <v>1.3046588315409655</v>
+        <v>5.6657714511449333</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>523.5</v>
       </c>
       <c r="B11" s="2">
-        <v>2.6342577525501794</v>
+        <v>8.8509370300837791</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>524</v>
       </c>
       <c r="B12" s="2">
-        <v>13.658667071550719</v>
+        <v>15.959286463808583</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>524.5</v>
       </c>
       <c r="B13" s="2">
-        <v>39.299242126555555</v>
+        <v>27.746384420145258</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>525</v>
       </c>
       <c r="B14" s="2">
-        <v>66.738591000787935</v>
+        <v>40.021166026861899</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>525.5</v>
       </c>
       <c r="B15" s="2">
-        <v>94.548982027163035</v>
+        <v>52.778878287832065</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>526</v>
       </c>
       <c r="B16" s="2">
-        <v>121.42973976626645</v>
+        <v>66.021342884467629</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>526.5</v>
       </c>
       <c r="B17" s="2">
-        <v>151.39445680297285</v>
+        <v>80.032774241335346</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>527</v>
       </c>
       <c r="B18" s="2">
-        <v>185.15058353719442</v>
+        <v>95.409817380053823</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>527.5</v>
       </c>
       <c r="B19" s="2">
-        <v>220.24399094993561</v>
+        <v>112.62069896086695</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>528</v>
       </c>
       <c r="B20" s="2">
-        <v>258.46269466991475</v>
+        <v>131.44702144783295</v>
       </c>
     </row>
   </sheetData>
@@ -791,7 +774,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B17"/>
+      <selection activeCell="B2" sqref="B2:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -803,7 +786,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>3</v>
@@ -814,7 +797,7 @@
         <v>526.5</v>
       </c>
       <c r="B2" s="2">
-        <v>57.121421143816598</v>
+        <v>5.6476792656826508E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -822,7 +805,7 @@
         <v>526.6</v>
       </c>
       <c r="B3" s="2">
-        <v>58.205359696417453</v>
+        <v>0.15974049226923465</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -830,7 +813,7 @@
         <v>526.70000000000005</v>
       </c>
       <c r="B4" s="2">
-        <v>59.286045805349119</v>
+        <v>0.29346202299046936</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -838,7 +821,7 @@
         <v>526.80000000000007</v>
       </c>
       <c r="B5" s="2">
-        <v>60.360731848214286</v>
+        <v>0.45181434125461217</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -846,7 +829,7 @@
         <v>526.90000000000009</v>
       </c>
       <c r="B6" s="2">
-        <v>61.442884114100877</v>
+        <v>0.63142973765912536</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -854,7 +837,7 @@
         <v>527.00000000000011</v>
       </c>
       <c r="B7" s="2">
-        <v>62.983620883741246</v>
+        <v>0.83003594590913332</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -862,7 +845,7 @@
         <v>527.10000000000014</v>
       </c>
       <c r="B8" s="2">
-        <v>65.410440077199397</v>
+        <v>1.0459648375156529</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -870,7 +853,7 @@
         <v>527.20000000000016</v>
       </c>
       <c r="B9" s="2">
-        <v>68.56295707459121</v>
+        <v>5.080021455860404</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -878,7 +861,7 @@
         <v>527.30000000000018</v>
       </c>
       <c r="B10" s="2">
-        <v>73.731241184070001</v>
+        <v>12.455999999603844</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -886,7 +869,7 @@
         <v>527.4000000000002</v>
       </c>
       <c r="B11" s="2">
-        <v>80.075511578900972</v>
+        <v>22.007537908263465</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -894,7 +877,7 @@
         <v>527.50000000000023</v>
       </c>
       <c r="B12" s="2">
-        <v>87.377288249223596</v>
+        <v>33.31841778427367</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -902,7 +885,7 @@
         <v>527.60000000000025</v>
       </c>
       <c r="B13" s="2">
-        <v>95.614461390443182</v>
+        <v>48.966971713431427</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -910,7 +893,7 @@
         <v>527.70000000000027</v>
       </c>
       <c r="B14" s="2">
-        <v>104.54233454087691</v>
+        <v>64.03976430383382</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -918,7 +901,7 @@
         <v>527.8000000000003</v>
       </c>
       <c r="B15" s="2">
-        <v>111.76910346422966</v>
+        <v>80.427224827542901</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -926,7 +909,7 @@
         <v>527.90000000000032</v>
       </c>
       <c r="B16" s="2">
-        <v>119.56683982787197</v>
+        <v>98.031263715265254</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -934,7 +917,7 @@
         <v>528.00000000000034</v>
       </c>
       <c r="B17" s="2">
-        <v>130.26171154403272</v>
+        <v>116.77296407628076</v>
       </c>
     </row>
   </sheetData>
@@ -947,10 +930,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -963,168 +946,143 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="9">
+      <c r="A2" s="8">
         <v>0</v>
       </c>
-      <c r="B2" s="5">
-        <v>0</v>
-      </c>
+      <c r="B2" s="5"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <f>A2+1</f>
         <v>1</v>
       </c>
-      <c r="B3" s="5">
-        <v>0.1</v>
-      </c>
+      <c r="B3" s="5"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="10">
-        <f t="shared" ref="A4:A21" si="0">A3+1</f>
+      <c r="A4" s="9">
+        <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="5">
-        <v>0.11</v>
-      </c>
+      <c r="B4" s="5"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="11">
-        <v>2.99</v>
-      </c>
-      <c r="B5" s="5">
-        <v>0.23</v>
-      </c>
+      <c r="A5" s="9">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="B5" s="5"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="11">
+      <c r="A6" s="9">
+        <f>A4+1</f>
+        <v>3</v>
+      </c>
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="9">
+        <f t="shared" ref="A7:A22" si="0">A6+1</f>
         <v>4</v>
       </c>
-      <c r="B6" s="5">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="10">
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="5">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="10">
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="6">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="10">
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="5">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="10">
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="5">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="10">
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="9">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="5">
-        <v>0.42299999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="10">
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="5">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="10">
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="9">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="5">
-        <v>0.437</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="10">
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="9">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="5">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="10">
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="9">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="5">
-        <v>0.441</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="10">
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="9">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="7">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="10">
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="9">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="10">
+    <row r="19" spans="1:1">
+      <c r="A19" s="9">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="10">
+    <row r="20" spans="1:1">
+      <c r="A20" s="9">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="10">
+    <row r="21" spans="1:1">
+      <c r="A21" s="9">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="10">
+    <row r="22" spans="1:1">
+      <c r="A22" s="9">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>

--- a/resources/input.xlsx
+++ b/resources/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Devfile\hydro-sty\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F3F8F5-3AEF-47B5-94EA-C6BFE5560D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FA88FD-3A6E-468B-A652-E0EF10C0CAAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Flood_Hydrograph" sheetId="1" r:id="rId1"/>
     <sheet name="Reservoir_Capacity" sheetId="2" r:id="rId2"/>
     <sheet name="Discharge_Curve" sheetId="3" r:id="rId3"/>
-    <sheet name="Outflow" sheetId="4" r:id="rId4"/>
+    <sheet name="Time" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -69,9 +69,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0.000"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -112,18 +111,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -155,7 +148,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -171,19 +164,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
@@ -471,7 +455,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -485,98 +469,98 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="10">
+      <c r="A2" s="7">
         <v>0</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="7">
         <v>2.2346181815168151</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="10">
+      <c r="A3" s="7">
         <v>1.2597</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="7">
         <v>20.11814667528127</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="10">
+      <c r="A4" s="7">
         <v>2.4700000000000002</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="7">
         <v>124.35514893813563</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="10">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="7">
         <v>69.568150573465417</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="10">
+      <c r="A6" s="7">
         <v>4.4707000000000008</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="7">
         <v>33.235770051491855</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="10">
+      <c r="A7" s="7">
         <v>4.9594000000000005</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="7">
         <v>17.959707217792989</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="10">
+      <c r="A8" s="7">
         <v>11.227272727272728</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="7">
         <v>11.229763622147374</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="10">
+      <c r="A9" s="7">
         <v>18</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="7">
         <v>9.083113081287987</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="10">
+      <c r="A10" s="7">
         <v>21</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="7">
         <v>7.103027045336578</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="10">
+      <c r="A11" s="7">
         <v>24</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="7">
         <v>5.1229410093851708</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="10">
+      <c r="A12" s="7">
         <v>27.39</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="7">
         <v>1.2592259527185738</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="10">
+      <c r="A13" s="7">
         <v>30.39</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="7">
         <v>0.97539222879824106</v>
       </c>
     </row>
@@ -593,7 +577,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B20"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -774,7 +758,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B16"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -930,162 +914,97 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="9.875" customWidth="1"/>
-    <col min="3" max="3" width="36.25" customWidth="1"/>
+    <col min="2" max="2" width="36.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="8">
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="5">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="9">
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="6">
         <f>A2+1</f>
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="9">
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="6">
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="5"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="9">
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="6">
         <v>2.4700000000000002</v>
       </c>
-      <c r="B5" s="5"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="9">
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="6">
         <f>A4+1</f>
         <v>3</v>
       </c>
-      <c r="B6" s="5"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="9">
-        <f t="shared" ref="A7:A22" si="0">A6+1</f>
-        <v>4</v>
-      </c>
-      <c r="B7" s="5"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="9">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="9">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B9" s="5"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="9">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B10" s="5"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="9">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B11" s="5"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="9">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B12" s="5"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="9">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B13" s="5"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="9">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B14" s="5"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="9">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B15" s="5"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="9">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B16" s="7"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="6"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="6"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="6"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="6"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="6"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="6"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="6"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="6"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="6"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="6"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="9">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
+      <c r="A17" s="6"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="9">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
+      <c r="A18" s="6"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="9">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
+      <c r="A19" s="6"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="9">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
+      <c r="A20" s="6"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="9">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
+      <c r="A21" s="6"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="9">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
+      <c r="A22" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
